--- a/CORTES DE CAJA/2025/10) Octubre/LISTA DE LAS VENTAS DEL DIA SEMANA 43 DE OCTUBRE -25.xlsx
+++ b/CORTES DE CAJA/2025/10) Octubre/LISTA DE LAS VENTAS DEL DIA SEMANA 43 DE OCTUBRE -25.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE7B75F-51C3-4239-B839-8B9A15ED4FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D915174-6A5E-4457-8ADF-944E2CCE8CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lunes20-10-25 " sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Miercoles 22-10-25" sheetId="3" r:id="rId3"/>
     <sheet name="Jueves 23-10-25" sheetId="4" r:id="rId4"/>
     <sheet name="Viernes 24-10-25" sheetId="5" r:id="rId5"/>
-    <sheet name="Sabado" sheetId="6" r:id="rId6"/>
+    <sheet name="Sabado 25 -10-15" sheetId="6" r:id="rId6"/>
     <sheet name="Domingo" sheetId="8" r:id="rId7"/>
     <sheet name="Cambios" sheetId="7" r:id="rId8"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="145">
   <si>
     <t>Producto</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Colocar x si descuento</t>
-  </si>
-  <si>
-    <t>Sabado 01-02-03</t>
   </si>
   <si>
     <t>Cambio</t>
@@ -743,6 +740,54 @@
 TOTAL DE EGRESOS $ 26270.5 </t>
     </r>
   </si>
+  <si>
+    <t>Sabado 25 DE OCTUBRE-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALATA DE TAMBOR CHICO </t>
+  </si>
+  <si>
+    <t>FILTRO DE GASOLINA CARTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELLO DE ESCAPE MOTONETA </t>
+  </si>
+  <si>
+    <t>CARGADOR DE TELEFONO</t>
+  </si>
+  <si>
+    <t>BALATA DE DISCO FT150</t>
+  </si>
+  <si>
+    <t>FILTRO DE GASOINA CARTON</t>
+  </si>
+  <si>
+    <t>MOTUL 3000 MINERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTRO DE ACEITE FZ.16 </t>
+  </si>
+  <si>
+    <t>LIMPIADOR DE CARBU8RADOR AXPRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACEITE AKRON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTECTOR DE CAMBIOS </t>
+  </si>
+  <si>
+    <t>BALATA DE DISCO DS150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTRO DE GASOLINA CARTON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTA DE HOY SABADO$ 3138.5 MENOS $300 PAGO DE YAS QUEDA $ 2838.5 MAS LO DE AYER EN CAJA TOTAL $ 26270.5 TOTAL EN CAJA $ 29109 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMARAS QUE ENTREGO DANIEL </t>
+  </si>
 </sst>
 </file>
 
@@ -1098,27 +1143,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1158,8 +1182,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1169,6 +1211,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1192,10 +1237,74 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1218,18 +1327,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1238,18 +1339,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1258,58 +1351,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1353,14 +1398,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla110" displayName="Tabla110" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="25">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Importa" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Importa" dataDxfId="24">
       <calculatedColumnFormula>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1372,14 +1417,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla111" displayName="Tabla111" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#" dataDxfId="23">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Importa" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Importa" dataDxfId="22">
       <calculatedColumnFormula>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1391,14 +1436,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla112" displayName="Tabla112" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#" dataDxfId="21">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Importa" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Importa" dataDxfId="20">
       <calculatedColumnFormula>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1410,14 +1455,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla113" displayName="Tabla113" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="#" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="#" dataDxfId="19">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Importa" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Importa" dataDxfId="18">
       <calculatedColumnFormula>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1429,14 +1474,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla114" displayName="Tabla114" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="#" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="#" dataDxfId="17">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Importa" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Importa" dataDxfId="16">
       <calculatedColumnFormula>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1448,14 +1493,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla115" displayName="Tabla115" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="#" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="#" dataDxfId="15">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Importa" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Importa" dataDxfId="14">
       <calculatedColumnFormula>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1762,50 +1807,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla1[Importa])</f>
         <v>574</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1823,32 +1868,32 @@
         <v>4</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>11</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1860,28 +1905,28 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1893,26 +1938,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1924,26 +1969,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1955,26 +2000,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>42</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1986,26 +2031,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2017,26 +2062,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2048,26 +2093,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2079,26 +2124,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2110,26 +2155,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>80</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2141,26 +2186,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>80</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2172,12 +2217,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>6</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="str">
@@ -2192,12 +2237,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -2212,12 +2257,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -2232,12 +2277,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -2252,12 +2297,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -2272,12 +2317,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -2292,12 +2337,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -2312,12 +2357,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -2346,14 +2391,14 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="M24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -2368,12 +2413,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -2388,18 +2433,18 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="31"/>
+      <c r="O26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="14" t="s">
+      <c r="P26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -2414,16 +2459,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="30">
+      <c r="M27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="20"/>
+      <c r="O27" s="23">
         <v>71</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="34"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -2438,12 +2483,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -2458,12 +2503,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="34"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -2478,12 +2523,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="37"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -2498,12 +2543,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -2518,12 +2563,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -2538,12 +2583,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -2558,12 +2603,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="37"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="30"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -2578,12 +2623,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2598,12 +2643,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="37"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2618,12 +2663,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="34"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2638,12 +2683,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="37"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2658,12 +2703,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2678,12 +2723,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="30"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -2698,12 +2743,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="26"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="34"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -2718,12 +2763,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="37"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="30"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -2738,12 +2783,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="34"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -2758,12 +2803,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="37"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="30"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -2778,12 +2823,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="26"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="34"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="27"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -2798,12 +2843,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="37"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -2818,12 +2863,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="34"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -2838,12 +2883,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="37"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -2858,12 +2903,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="34"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="27"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -2878,12 +2923,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="37"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -2898,12 +2943,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="34"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -2918,12 +2963,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="37"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3642,33 +3687,19 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3677,27 +3708,41 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3733,50 +3778,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla110[Importa])</f>
         <v>2650</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -3794,30 +3839,30 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>24</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3826,34 +3871,34 @@
         <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70.5</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3862,32 +3907,32 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3896,32 +3941,32 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3933,26 +3978,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>99</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3964,26 +4009,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3995,26 +4040,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4026,26 +4071,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>294</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4057,26 +4102,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>595</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4085,32 +4130,32 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4122,26 +4167,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>161</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4153,12 +4198,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>11</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="str">
@@ -4170,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4182,12 +4227,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>230</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -4199,7 +4244,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4211,12 +4256,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>355</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -4228,7 +4273,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4240,12 +4285,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -4257,7 +4302,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4266,18 +4311,18 @@
         <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>128</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -4289,7 +4334,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -4298,18 +4343,18 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>76</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -4321,7 +4366,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4330,18 +4375,18 @@
         <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -4353,7 +4398,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4362,18 +4407,18 @@
         <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -4385,7 +4430,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>12</v>
@@ -4408,7 +4453,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4420,14 +4465,14 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>5</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -4439,7 +4484,7 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4448,18 +4493,18 @@
         <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>54</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -4471,7 +4516,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4480,24 +4525,24 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -4509,7 +4554,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4523,10 +4568,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -4538,7 +4583,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4552,10 +4597,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -4572,10 +4617,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -4592,10 +4637,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -4612,10 +4657,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -4632,10 +4677,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -4652,10 +4697,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -4672,10 +4717,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -4692,10 +4737,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4712,10 +4757,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4732,10 +4777,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -4752,10 +4797,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -4772,10 +4817,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -4792,10 +4837,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -4812,10 +4857,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -4832,10 +4877,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -4852,10 +4897,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -4872,10 +4917,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5705,40 +5750,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5774,50 +5819,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla111[Importa])</f>
         <v>1414</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -5835,32 +5880,32 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5872,28 +5917,28 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C6">
         <f>IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5905,26 +5950,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -5936,26 +5981,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="0">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5967,26 +6012,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>92</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5995,32 +6040,32 @@
         <v>385</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>346.5</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -6029,32 +6074,32 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6063,32 +6108,32 @@
         <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>252</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -6097,32 +6142,32 @@
         <v>280</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>252</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -6134,26 +6179,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -6165,26 +6210,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -6193,18 +6238,18 @@
         <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="str">
@@ -6216,7 +6261,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6225,18 +6270,18 @@
         <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>108</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -6248,7 +6293,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -6260,12 +6305,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>14</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -6277,7 +6322,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -6286,18 +6331,18 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>14.5</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -6309,7 +6354,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -6318,18 +6363,18 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>14.5</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -6341,7 +6386,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -6350,18 +6395,18 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -6376,12 +6421,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -6396,12 +6441,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -6430,14 +6475,14 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -6452,12 +6497,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -6473,17 +6518,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -6499,15 +6544,15 @@
         <v/>
       </c>
       <c r="M27" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N27" s="15">
         <v>4215</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -6523,15 +6568,15 @@
         <v/>
       </c>
       <c r="M28" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N28" s="15">
         <v>4587</v>
       </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -6548,10 +6593,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -6568,10 +6613,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -6588,10 +6633,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -6608,10 +6653,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -6628,10 +6673,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -6648,10 +6693,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -6668,10 +6713,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -6688,10 +6733,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -6708,10 +6753,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -6728,10 +6773,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -6748,10 +6793,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -6768,10 +6813,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -6788,10 +6833,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -6808,10 +6853,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -6828,10 +6873,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -6848,10 +6893,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7681,40 +7726,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7749,50 +7794,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla112[Importa])</f>
         <v>3318</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -7810,30 +7855,30 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7845,28 +7890,28 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7878,26 +7923,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -7909,26 +7954,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>95</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7940,26 +7985,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>355</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -7971,26 +8016,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>130</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7999,32 +8044,32 @@
         <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>450</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -8033,32 +8078,32 @@
         <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>108</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -8067,32 +8112,32 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -8104,26 +8149,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>500</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -8135,26 +8180,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -8166,12 +8211,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>60</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="str">
@@ -8183,7 +8228,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -8195,12 +8240,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -8212,7 +8257,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -8224,12 +8269,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>280</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -8241,7 +8286,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -8250,18 +8295,18 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -8273,7 +8318,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -8282,18 +8327,18 @@
         <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -8305,7 +8350,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -8314,18 +8359,18 @@
         <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -8337,7 +8382,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -8346,18 +8391,18 @@
         <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -8369,7 +8414,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -8381,12 +8426,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>60</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -8398,7 +8443,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -8424,14 +8469,14 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -8446,12 +8491,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -8467,17 +8512,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -8494,10 +8539,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -8514,10 +8559,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -8534,10 +8579,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -8554,10 +8599,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -8574,10 +8619,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -8594,10 +8639,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -8614,10 +8659,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -8634,10 +8679,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -8654,10 +8699,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -8674,10 +8719,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -8694,10 +8739,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -8714,10 +8759,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -8734,10 +8779,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -8754,10 +8799,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -8774,10 +8819,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -8794,10 +8839,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -8814,10 +8859,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -8834,10 +8879,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -9667,40 +9712,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9715,7 +9760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -9736,50 +9781,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla113[Importa])</f>
         <v>2311</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -9797,32 +9842,32 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>20</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -9834,28 +9879,28 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>322</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -9867,26 +9912,26 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>150</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -9895,32 +9940,32 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>58.5</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -9932,26 +9977,26 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -9960,32 +10005,32 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32.5</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -9994,32 +10039,32 @@
         <v>250</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>237.5</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -10028,32 +10073,32 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22.5</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -10062,32 +10107,32 @@
         <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>154</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -10096,32 +10141,32 @@
         <v>350</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>315</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -10130,32 +10175,32 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>11</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -10164,18 +10209,18 @@
         <v>250</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>237.5</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="str">
@@ -10187,7 +10232,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -10196,18 +10241,18 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>43.5</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -10219,7 +10264,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -10228,18 +10273,18 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -10251,7 +10296,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -10260,18 +10305,18 @@
         <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -10283,7 +10328,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -10295,12 +10340,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -10312,7 +10357,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -10324,12 +10369,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -10341,7 +10386,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -10350,18 +10395,18 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -10373,7 +10418,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -10382,18 +10427,18 @@
         <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>84</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -10405,7 +10450,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -10414,7 +10459,7 @@
         <v>220</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G23))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
@@ -10431,7 +10476,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10443,14 +10488,14 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -10465,12 +10510,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -10486,17 +10531,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -10512,17 +10557,17 @@
         <v/>
       </c>
       <c r="M27" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N27" s="15">
         <v>71</v>
       </c>
-      <c r="O27" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -10538,17 +10583,17 @@
         <v/>
       </c>
       <c r="M28" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N28" s="15">
         <v>4215</v>
       </c>
-      <c r="O28" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -10564,17 +10609,17 @@
         <v/>
       </c>
       <c r="M29" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N29" s="15">
         <v>4587</v>
       </c>
-      <c r="O29" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -10590,17 +10635,17 @@
         <v/>
       </c>
       <c r="M30" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N30" s="15">
         <v>3025</v>
       </c>
-      <c r="O30" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -10616,17 +10661,17 @@
         <v/>
       </c>
       <c r="M31" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N31" s="15">
         <v>1541</v>
       </c>
-      <c r="O31" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -10642,17 +10687,17 @@
         <v/>
       </c>
       <c r="M32" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N32" s="15">
         <v>1500</v>
       </c>
-      <c r="O32" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10668,17 +10713,17 @@
         <v/>
       </c>
       <c r="M33" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N33" s="15">
         <v>14898</v>
       </c>
-      <c r="O33" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -10695,10 +10740,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -10715,10 +10760,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -10735,10 +10780,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -10755,10 +10800,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -10775,10 +10820,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -10795,10 +10840,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -10815,10 +10860,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -10835,10 +10880,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -10855,10 +10900,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -10875,10 +10920,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -10895,10 +10940,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -11728,40 +11773,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11776,8 +11821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:R103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11796,50 +11841,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla114[Importa])</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="24" t="s">
+        <v>3138.5</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -11857,413 +11902,601 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
-        <v/>
-      </c>
-      <c r="H5" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+        <v>70.5</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H6" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>95</v>
+      </c>
+      <c r="H6" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>66</v>
+      </c>
+      <c r="H9" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+        <v>1320</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>95</v>
+      </c>
+      <c r="H10" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>123</v>
+      </c>
+      <c r="H11" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+        <v>123</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+      <c r="H12" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+        <v>85.5</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="5" t="str">
+        <v>45955.784321064813</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="5" t="str">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="H16" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+        <v>200</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="5" t="str">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="5" t="str">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+        <v>51.5</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="5" t="str">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>75</v>
+      </c>
+      <c r="H19" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="5" t="str">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="5" t="str">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>142</v>
+      </c>
+      <c r="H21" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+        <v>142</v>
+      </c>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H22" s="5" t="str">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>123</v>
+      </c>
+      <c r="H22" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+        <v>123</v>
+      </c>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="5" t="str">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>142</v>
+      </c>
+      <c r="H23" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G23))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12271,128 +12504,185 @@
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="5" t="str">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>123</v>
+      </c>
+      <c r="H24" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+        <v>123</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="5" t="str">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>35</v>
+      </c>
+      <c r="H25" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H26" s="5" t="str">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>42</v>
+      </c>
+      <c r="H26" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>42</v>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H27" s="5" t="str">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="H27" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H28" s="5" t="str">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>57</v>
+      </c>
+      <c r="H28" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>57</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
         <v/>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="5" t="str">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
+        <v>38</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -12409,10 +12699,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -12429,10 +12719,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -12449,10 +12739,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -12469,10 +12759,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -12489,10 +12779,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -12509,10 +12799,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12529,10 +12819,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12549,10 +12839,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12569,10 +12859,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -12589,10 +12879,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -12609,10 +12899,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -12629,10 +12919,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -12649,10 +12939,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -12669,10 +12959,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -12689,10 +12979,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13522,40 +13812,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13590,50 +13880,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -13651,18 +13941,18 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -13677,21 +13967,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -13701,19 +13991,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -13723,19 +14013,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -13745,19 +14035,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -13767,19 +14057,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -13789,19 +14079,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -13811,19 +14101,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -13833,19 +14123,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -13855,19 +14145,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -13877,19 +14167,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45954.784778935187</v>
+        <v>45955.784321064813</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -13899,12 +14189,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="str">
@@ -13919,12 +14209,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
@@ -13939,12 +14229,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="str">
@@ -13959,12 +14249,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="str">
@@ -13979,12 +14269,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -13999,12 +14289,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -14019,12 +14309,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -14039,12 +14329,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -14073,14 +14363,14 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="M24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -14095,12 +14385,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -14116,17 +14406,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -14143,10 +14433,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -14163,10 +14453,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -14183,10 +14473,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -14203,10 +14493,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -14223,10 +14513,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -14243,10 +14533,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14263,10 +14553,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -14283,10 +14573,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -14303,10 +14593,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14323,10 +14613,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14343,10 +14633,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14363,10 +14653,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14383,10 +14673,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14403,10 +14693,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14423,10 +14713,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14443,10 +14733,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14463,10 +14753,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14483,10 +14773,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15316,40 +15606,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15375,18 +15665,18 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>45576</v>
@@ -15398,10 +15688,10 @@
     </row>
     <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>1.2</v>
@@ -15410,7 +15700,7 @@
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>45778</v>
